--- a/excel/monthcost.xlsx
+++ b/excel/monthcost.xlsx
@@ -1721,10 +1721,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="13">
-        <v>51157120</v>
+        <v>49027364</v>
       </c>
       <c r="C4" s="13">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="D4" s="13">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <f>SUM(C4:E4)</f>
       </c>
       <c r="G4" s="13">
-        <v>2860009</v>
+        <v>0</v>
       </c>
       <c r="H4" s="13">
-        <v>261111</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4" t="e">
         <f>C4+D4+E4+G4+H4</f>
@@ -1753,27 +1753,15 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13">
-        <v>27292981</v>
-      </c>
-      <c r="C5" s="13">
-        <v>6768</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="4">
         <f t="shared" ref="F5:F15" si="1">SUM(C5:E5)</f>
       </c>
-      <c r="G5" s="13">
-        <v>1347804</v>
-      </c>
-      <c r="H5" s="13">
-        <v>174975</v>
-      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="4" t="e">
         <f t="shared" ref="I5:I15" si="2">C5+D5+E5+G5+H5</f>
       </c>
@@ -1786,27 +1774,15 @@
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13">
-        <v>46988759</v>
-      </c>
-      <c r="C6" s="13">
-        <v>211</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="4">
         <f t="shared" si="1"/>
       </c>
-      <c r="G6" s="13">
-        <v>1822094</v>
-      </c>
-      <c r="H6" s="13">
-        <v>151462</v>
-      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="4" t="e">
         <f t="shared" si="2"/>
       </c>
@@ -1819,27 +1795,15 @@
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="13">
-        <v>56070539</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="4">
         <f t="shared" si="1"/>
       </c>
-      <c r="G7" s="13">
-        <v>1867349</v>
-      </c>
-      <c r="H7" s="13">
-        <v>139892</v>
-      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="4" t="e">
         <f t="shared" si="2"/>
       </c>
@@ -1852,27 +1816,15 @@
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="13">
-        <v>66137642</v>
-      </c>
-      <c r="C8" s="13">
-        <v>173250</v>
-      </c>
-      <c r="D8" s="13">
-        <v>161978</v>
-      </c>
-      <c r="E8" s="13">
-        <v>97846</v>
-      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
       </c>
-      <c r="G8" s="13">
-        <v>1942703</v>
-      </c>
-      <c r="H8" s="13">
-        <v>105024</v>
-      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="4" t="e">
         <f t="shared" si="2"/>
       </c>
@@ -1885,27 +1837,15 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13">
-        <v>89121764</v>
-      </c>
-      <c r="C9" s="13">
-        <v>223693</v>
-      </c>
-      <c r="D9" s="13">
-        <v>222722</v>
-      </c>
-      <c r="E9" s="13">
-        <v>134484</v>
-      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
       </c>
-      <c r="G9" s="13">
-        <v>2524963</v>
-      </c>
-      <c r="H9" s="13">
-        <v>180040</v>
-      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="4" t="e">
         <f t="shared" si="2"/>
       </c>
@@ -1918,27 +1858,15 @@
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13">
-        <v>57738555</v>
-      </c>
-      <c r="C10" s="13">
-        <v>142376</v>
-      </c>
-      <c r="D10" s="13">
-        <v>144567</v>
-      </c>
-      <c r="E10" s="13">
-        <v>86741</v>
-      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
       </c>
-      <c r="G10" s="13">
-        <v>2384983</v>
-      </c>
-      <c r="H10" s="13">
-        <v>147125</v>
-      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="4" t="e">
         <f t="shared" si="2"/>
       </c>
@@ -1951,27 +1879,15 @@
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="13">
-        <v>67980886</v>
-      </c>
-      <c r="C11" s="13">
-        <v>147987</v>
-      </c>
-      <c r="D11" s="13">
-        <v>165299</v>
-      </c>
-      <c r="E11" s="13">
-        <v>99180</v>
-      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
       </c>
-      <c r="G11" s="13">
-        <v>2155887</v>
-      </c>
-      <c r="H11" s="13">
-        <v>89993</v>
-      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="4" t="e">
         <f t="shared" si="2"/>
       </c>
@@ -1984,27 +1900,15 @@
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="13">
-        <v>53186040</v>
-      </c>
-      <c r="C12" s="13">
-        <v>145485</v>
-      </c>
-      <c r="D12" s="13">
-        <v>131057</v>
-      </c>
-      <c r="E12" s="13">
-        <v>78646</v>
-      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
       </c>
-      <c r="G12" s="13">
-        <v>1872111</v>
-      </c>
-      <c r="H12" s="13">
-        <v>95055</v>
-      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="4" t="e">
         <f t="shared" si="2"/>
       </c>
@@ -2017,27 +1921,15 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="13">
-        <v>66824849</v>
-      </c>
-      <c r="C13" s="13">
-        <v>147208</v>
-      </c>
-      <c r="D13" s="13">
-        <v>166977</v>
-      </c>
-      <c r="E13" s="13">
-        <v>100139</v>
-      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
       </c>
-      <c r="G13" s="13">
-        <v>3129643</v>
-      </c>
-      <c r="H13" s="13">
-        <v>162739</v>
-      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="4" t="e">
         <f t="shared" si="2"/>
       </c>
